--- a/Extracted Data/VRU Headform (C) - Color-wise graphs/2020_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise graphs/2020_cars_combined.xlsx
@@ -7,15 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Default green" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Green" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Yellow" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Orange" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Brown" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Red" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Default Red" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Blue" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Predicted headform score (exclu" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Graphs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -159,236 +151,196 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>25</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>50</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>75</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>100</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>125</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>150</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>175</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>200</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -698,177 +650,7 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="300" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="300" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="300" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="300" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="300" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="300" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="300" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="300" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="300" customHeight="1"/>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Extracted Data/VRU Headform (C) - Color-wise graphs/2020_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise graphs/2020_cars_combined.xlsx
@@ -153,19 +153,119 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>20</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>25</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>20</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -180,107 +280,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>50</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>75</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>100</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>125</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>150</row>
+      <row>40</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -303,9 +303,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>175</row>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>40</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -328,9 +328,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>200</row>
+      <col>20</col>
+      <colOff>0</colOff>
+      <row>40</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -643,14 +643,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1"/>
+    <row r="21"/>
+    <row r="41"/>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Extracted Data/VRU Headform (C) - Color-wise graphs/2020_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise graphs/2020_cars_combined.xlsx
@@ -205,7 +205,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>20</row>
+      <row>30</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -230,7 +230,7 @@
     <from>
       <col>10</col>
       <colOff>0</colOff>
-      <row>20</row>
+      <row>30</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -255,7 +255,7 @@
     <from>
       <col>20</col>
       <colOff>0</colOff>
-      <row>20</row>
+      <row>30</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -280,7 +280,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>40</row>
+      <row>60</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -305,7 +305,7 @@
     <from>
       <col>10</col>
       <colOff>0</colOff>
-      <row>40</row>
+      <row>60</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -330,7 +330,7 @@
     <from>
       <col>20</col>
       <colOff>0</colOff>
-      <row>40</row>
+      <row>60</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -643,7 +643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,8 +652,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1"/>
-    <row r="21"/>
-    <row r="41"/>
+    <row r="31"/>
+    <row r="61"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/Extracted Data/VRU Headform (C) - Color-wise graphs/2020_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise graphs/2020_cars_combined.xlsx
@@ -178,9 +178,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>20</col>
-      <colOff>0</colOff>
-      <row>0</row>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>30</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -203,19 +203,44 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>30</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
+      <row>60</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -230,32 +255,7 @@
     <from>
       <col>10</col>
       <colOff>0</colOff>
-      <row>30</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>20</col>
-      <colOff>0</colOff>
-      <row>30</row>
+      <row>60</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -280,7 +280,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>60</row>
+      <row>90</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -305,7 +305,7 @@
     <from>
       <col>10</col>
       <colOff>0</colOff>
-      <row>60</row>
+      <row>90</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -328,9 +328,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>20</col>
-      <colOff>0</colOff>
-      <row>60</row>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>120</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -643,7 +643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U61"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,6 +654,8 @@
     <row r="1"/>
     <row r="31"/>
     <row r="61"/>
+    <row r="91"/>
+    <row r="121"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/Extracted Data/VRU Headform (C) - Color-wise graphs/2020_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise graphs/2020_cars_combined.xlsx
@@ -180,7 +180,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>30</row>
+      <row>26</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -205,7 +205,7 @@
     <from>
       <col>10</col>
       <colOff>0</colOff>
-      <row>30</row>
+      <row>26</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -230,7 +230,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>60</row>
+      <row>52</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -255,7 +255,7 @@
     <from>
       <col>10</col>
       <colOff>0</colOff>
-      <row>60</row>
+      <row>52</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -280,7 +280,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>90</row>
+      <row>78</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -305,7 +305,7 @@
     <from>
       <col>10</col>
       <colOff>0</colOff>
-      <row>90</row>
+      <row>78</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -330,7 +330,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>120</row>
+      <row>104</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -643,7 +643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,10 +652,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1"/>
-    <row r="31"/>
-    <row r="61"/>
-    <row r="91"/>
-    <row r="121"/>
+    <row r="27"/>
+    <row r="53"/>
+    <row r="79"/>
+    <row r="105"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
